--- a/data/Bentiu population.xlsx
+++ b/data/Bentiu population.xlsx
@@ -794,7 +794,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/Bentiu population.xlsx
+++ b/data/Bentiu population.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22400" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="New Arrivals" sheetId="2" r:id="rId2"/>
+    <sheet name="Cases" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -45,16 +47,7 @@
     <t>Exits</t>
   </si>
   <si>
-    <t>x7200</t>
-  </si>
-  <si>
-    <t>x8324</t>
-  </si>
-  <si>
     <t>Source 2</t>
-  </si>
-  <si>
-    <t>http://iomsouthsudan.org/tracking/sites/default/publicfiles/documents/Bentiu%20POC%2024%20Aug%202015.pdf</t>
   </si>
   <si>
     <t>http://reliefweb.int/report/south-sudan/thousands-idps-vaccinated-against-cholera-bentiu</t>
@@ -73,6 +66,51 @@
   </si>
   <si>
     <t>20% per month</t>
+  </si>
+  <si>
+    <t>Monthly Change</t>
+  </si>
+  <si>
+    <t>Moving Average Change</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Monthly Average</t>
+  </si>
+  <si>
+    <t>Monthly "Average"</t>
+  </si>
+  <si>
+    <t>Inferred number of departures</t>
+  </si>
+  <si>
+    <t>Source: Greater Bentiu Overview PoC trends Movement trend from Dec 2015 to May 2016</t>
+  </si>
+  <si>
+    <t>Approx Number of New Arrivals (biometric)</t>
+  </si>
+  <si>
+    <t>Biometric New Arrivals rate (per week)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Using the population counts (which record the number sleeping in the camp) instead of biometric counts (which is an overestimate of overnight residents)</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>Monthly cases</t>
   </si>
 </sst>
 </file>
@@ -104,18 +142,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,20 +159,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -193,10 +236,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$29</c:f>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>41671.0</c:v>
                 </c:pt>
@@ -252,44 +295,38 @@
                   <c:v>42339.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42674.0</c:v>
+                  <c:v>42401.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42401.0</c:v>
+                  <c:v>42430.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42430.0</c:v>
+                  <c:v>42461.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42461.0</c:v>
+                  <c:v>42491.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42491.0</c:v>
+                  <c:v>42522.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42522.0</c:v>
+                  <c:v>42552.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42552.0</c:v>
+                  <c:v>42583.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42583.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>42614.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42644.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$29</c:f>
+              <c:f>Sheet1!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>4291.0</c:v>
                 </c:pt>
@@ -345,34 +382,28 @@
                   <c:v>140101.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>101022.0</c:v>
+                  <c:v>119476.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>119476.0</c:v>
+                  <c:v>116538.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>116538.0</c:v>
+                  <c:v>108190.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>108190.0</c:v>
+                  <c:v>98653.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>98653.0</c:v>
+                  <c:v>93817.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>93817.0</c:v>
+                  <c:v>99034.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>99034.0</c:v>
+                  <c:v>94827.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>94827.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>101350.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>101570.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -387,11 +418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2089749432"/>
-        <c:axId val="2129300216"/>
+        <c:axId val="361685272"/>
+        <c:axId val="361688296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2089749432"/>
+        <c:axId val="361685272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -401,12 +432,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129300216"/>
+        <c:crossAx val="361688296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2129300216"/>
+        <c:axId val="361688296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -417,11 +448,608 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089749432"/>
+        <c:crossAx val="361685272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'New Arrivals'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Biometric New Arrivals rate (per week)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'New Arrivals'!$A$2:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>42355.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42361.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42373.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42380.51595881596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42382.80797940798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42385.57425997425</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42389.7888030888</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42393.55456885456</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42398.11595881596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42403.88211068211</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42408.16885456885</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42412.19086229086</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42417.07644787645</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42425.53667953668</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42430.31184041184</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42438.42522522523</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42447.01711711712</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42455.12200772201</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42461.64555984555</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42468.83590733591</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42476.00077220077</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42480.39086229086</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42483.89189189189</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42487.76100386101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42492.04916344916</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42496.48172458172</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42500.26447876448</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42505.98815958815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Arrivals'!$E$2:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1936.36363636363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1818.18181818181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1545.45454545454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1790.90909090909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018.18181818181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2163.63636363636</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009.0909090909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1881.81818181818</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1918.18181818181</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1709.0909090909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1190.90909090909</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1090.90909090909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1136.36363636363</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1036.36363636363</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>845.454545454545</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>763.636363636363</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>809.090909090909</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>872.727272727273</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>809.090909090909</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>781.818181818181</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1054.54545454545</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>736.363636363636</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>618.181818181818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="120468296"/>
+        <c:axId val="121877640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="120468296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121877640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="121877640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120468296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cases!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cases</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cases!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>42659.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42660.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42661.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42662.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42663.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42664.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42665.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42666.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42667.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42668.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42669.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42670.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42671.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42672.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42673.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42674.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42675.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42676.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42677.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42678.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42679.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42680.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42681.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42682.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42683.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42684.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42685.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42686.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42687.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42688.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42689.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cases!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.277777777777771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.277777777777771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.277777777777771</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.22222222222222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.22222222222222</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.05555555555555</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.27777777777777</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.2777777777777</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0555555555555</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.88888888888889</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.05555555555555</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.2777777777777</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.0555555555555</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.27777777777777</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.05555555555555</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.3888888888888</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.2777777777777</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.9444444444444</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.22222222222222</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.05555555555555</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.05555555555555</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.3888888888888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="423147592"/>
+        <c:axId val="423136440"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="423147592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="423136440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="423136440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="423147592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -440,18 +1068,88 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -791,492 +1489,1838 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="44" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B2">
+        <v>4291</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>41699</v>
+      </c>
+      <c r="B3">
+        <v>7894</v>
+      </c>
+      <c r="C3" s="2">
+        <f>(B3-B2)/((A3-A2)/30.5)</f>
+        <v>3924.6964285714284</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B4">
+        <v>31250</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C29" si="0">(B4-B3)/((A4-A3)/30.5)</f>
+        <v>11678</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>41791</v>
+      </c>
+      <c r="B5">
+        <v>40574</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>9173.6129032258068</v>
+      </c>
+      <c r="D5" s="2">
+        <f>AVERAGE(C3:C6)</f>
+        <v>6194.0773329493086</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B6">
+        <v>40574</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <f>AVERAGE(C4:C6)</f>
+        <v>6950.5376344086026</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>66529</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>41913</v>
+      </c>
+      <c r="B7">
+        <v>49612</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>2996.29347826087</v>
+      </c>
+      <c r="D7" s="2">
+        <f>AVERAGE(C7:C9)</f>
+        <v>1509.7833099579245</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>41974</v>
+      </c>
+      <c r="B8">
+        <v>43718</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>-2947</v>
+      </c>
+      <c r="D8" s="2">
+        <f>AVERAGE(C7:C10)</f>
+        <v>7076.2973038970149</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>42036</v>
+      </c>
+      <c r="B9">
+        <v>52825</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>4480.0564516129034</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:D25" si="1">AVERAGE(C7:C11)</f>
+        <v>6008.3442947305148</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B10">
+        <v>74652</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>23775.839285714286</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>5409.0855990783411</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>42095</v>
+      </c>
+      <c r="B11">
+        <v>76417</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>1736.5322580645161</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>6983.3404377880188</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>42125</v>
+      </c>
+      <c r="B12">
+        <v>76417</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>10467.739147465438</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>42156</v>
+      </c>
+      <c r="B13">
+        <v>81422</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>4924.2741935483873</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>7938.4809677419353</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>146720</v>
+      </c>
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B14">
+        <v>102965</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>21902.05</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>8528.0164516129043</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f>2500+3200+3200+4800</f>
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>42217</v>
+      </c>
+      <c r="B15">
+        <v>114277</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>11129.548387096775</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>8996.0897849462381</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>42248</v>
+      </c>
+      <c r="B16">
+        <v>119038</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>4684.2096774193551</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>9585.2317204301089</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>42278</v>
+      </c>
+      <c r="B17">
+        <v>121340</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>2340.3666666666668</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>7393.0950537634417</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>42309</v>
+      </c>
+      <c r="B18">
+        <v>129339</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>7869.9838709677415</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>3137.9515053763434</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B19">
+        <v>140101</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>10941.366666666667</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
+        <v>1583.1164664441965</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>1933</v>
+      </c>
+      <c r="H19">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B20">
+        <v>119476</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>-10146.16935483871</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="1"/>
+        <v>-527.62783463107212</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <f>1474+1400</f>
+        <v>2874</v>
+      </c>
+      <c r="H20">
+        <f>1058+645</f>
+        <v>1703</v>
+      </c>
+      <c r="I20">
+        <v>5113</v>
+      </c>
+      <c r="J20" s="2">
+        <f>C20-I20</f>
+        <v>-15259.16935483871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B21">
+        <v>116538</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>-3089.9655172413795</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>-4040.8146088246203</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>3782</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" ref="J21:J23" si="2">C21-I21</f>
+        <v>-6871.9655172413795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>42461</v>
+      </c>
+      <c r="B22">
+        <v>108190</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>-8213.354838709678</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>-7180.6879421579533</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <f>658+1039</f>
+        <v>1697</v>
+      </c>
+      <c r="H22">
+        <f>2134+2016</f>
+        <v>4150</v>
+      </c>
+      <c r="I22">
+        <v>3315</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="2"/>
+        <v>-11528.354838709678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B23">
+        <v>98653</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>-9695.9500000000007</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>-4090.6640711902119</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>3309</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="2"/>
+        <v>-13004.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>42522</v>
+      </c>
+      <c r="B24">
+        <v>93817</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>-4758</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>-4300.5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <f>775+581</f>
+        <v>1356</v>
+      </c>
+      <c r="H24">
+        <f>1249+2500</f>
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B25">
+        <v>99034</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>5303.95</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>-1374.2709677419355</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <f>652+1686</f>
+        <v>2338</v>
+      </c>
+      <c r="H25">
+        <f>1413+1238</f>
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1">
+        <v>42583</v>
+      </c>
+      <c r="B26">
+        <v>94827</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>-4139.1451612903229</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <f>335+765</f>
+        <v>1100</v>
+      </c>
+      <c r="H26">
+        <f>1076+1142</f>
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1">
+        <v>42614</v>
+      </c>
+      <c r="B27">
+        <v>101350</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>6417.7903225806449</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <f>357+2133</f>
+        <v>2490</v>
+      </c>
+      <c r="H27">
+        <f>1215+1201</f>
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B28">
+        <v>101570</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>223.66666666666666</v>
+      </c>
+      <c r="M28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1">
+        <v>42675</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="M29">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="12:14">
+      <c r="L37">
+        <f>AVERAGE(G19:G27)</f>
+        <v>1969.7142857142858</v>
+      </c>
+      <c r="M37">
+        <f>AVERAGE(H19:H27)</f>
+        <v>2467.2857142857142</v>
+      </c>
+    </row>
+    <row r="38" spans="12:14">
+      <c r="L38">
+        <f>AVERAGE(B19:B27)</f>
+        <v>107998.44444444444</v>
+      </c>
+      <c r="M38">
+        <f>AVERAGE(B19:B27)</f>
+        <v>107998.44444444444</v>
+      </c>
+    </row>
+    <row r="40" spans="12:14">
+      <c r="L40">
+        <f>L37/L38</f>
+        <v>1.8238357930493415E-2</v>
+      </c>
+      <c r="M40">
+        <f>M37/M38</f>
+        <v>2.2845567146616751E-2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1">
+    <sortState ref="A2:B34">
+      <sortCondition ref="A1:A34"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="C3:D3 D4:D27 C4:C30">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B28">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B27">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="66" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3">
+        <v>42355</v>
+      </c>
+      <c r="B2" s="2">
+        <f t="shared" ref="B2:B3" si="0">(D2-1)*$D$36</f>
+        <v>-14.45289575289576</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2">
+        <v>0.52221832221832198</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1936.3636363636299</v>
+      </c>
+      <c r="I2" s="1">
+        <v>42370</v>
+      </c>
+      <c r="J2" s="2">
+        <f>AVERAGE(E4:E10)*4</f>
+        <v>7615.5844155843943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3">
+        <v>42361</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.8571428571428665</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3">
+        <v>0.74025974025973995</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1818.1818181818101</v>
+      </c>
+      <c r="I3" s="1">
+        <v>42401</v>
+      </c>
+      <c r="J3" s="2">
+        <f>AVERAGE(E11:E15)*4</f>
+        <v>5112.7272727272639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
+        <v>42373</v>
+      </c>
+      <c r="B4" s="2">
+        <f>(D4-1)*$D$36</f>
+        <v>4.0432432432431327</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4">
+        <v>1.13366093366093</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1545.45454545454</v>
+      </c>
+      <c r="I4" s="1">
+        <v>42430</v>
+      </c>
+      <c r="J4" s="2">
+        <f>AVERAGE(E16:E19)*4</f>
+        <v>3781.8181818181679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3">
+        <f>A4+B5-B4</f>
+        <v>42380.515958815959</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B29" si="1">(D5-1)*$D$36</f>
+        <v>11.559202059201995</v>
+      </c>
+      <c r="C5" s="2">
+        <f>B5-B4</f>
+        <v>7.5159588159588626</v>
+      </c>
+      <c r="D5">
+        <v>1.38212238212238</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1790.9090909090901</v>
+      </c>
+      <c r="I5" s="1">
+        <v>42461</v>
+      </c>
+      <c r="J5" s="2">
+        <f>AVERAGE(E20:E25)*4</f>
+        <v>3315.1515151515146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <f t="shared" ref="A6:A29" si="2">A5+B6-B5</f>
+        <v>42382.807979407982</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="1"/>
+        <v>13.851222651222415</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:C29" si="3">B6-B5</f>
+        <v>2.2920205920204193</v>
+      </c>
+      <c r="D6">
+        <v>1.4578916578916501</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2018.1818181818101</v>
+      </c>
+      <c r="I6" s="1">
+        <v>42491</v>
+      </c>
+      <c r="J6" s="2">
+        <f>AVERAGE(E26:E29)*4</f>
+        <v>3309.090909090904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <f t="shared" si="2"/>
+        <v>42385.574259974259</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="1"/>
+        <v>16.617503217502936</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="3"/>
+        <v>2.7662805662805212</v>
+      </c>
+      <c r="D7">
+        <v>1.54933894933894</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2163.6363636363599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <f t="shared" si="2"/>
+        <v>42389.788803088806</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="1"/>
+        <v>20.832046332046072</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="3"/>
+        <v>4.2145431145431367</v>
+      </c>
+      <c r="D8">
+        <v>1.6886626886626801</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2009.0909090908999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <f t="shared" si="2"/>
+        <v>42393.554568854568</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="1"/>
+        <v>24.597812097812003</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="3"/>
+        <v>3.7657657657659307</v>
+      </c>
+      <c r="D9">
+        <v>1.8131508131508101</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1881.8181818181799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
+        <f t="shared" si="2"/>
+        <v>42398.115958815957</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="1"/>
+        <v>29.159202059201942</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="3"/>
+        <v>4.5613899613899385</v>
+      </c>
+      <c r="D10">
+        <v>1.96394056394056</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1918.1818181818101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
+        <f t="shared" si="2"/>
+        <v>42403.882110682112</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="1"/>
+        <v>34.925353925353782</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="3"/>
+        <v>5.7661518661518407</v>
+      </c>
+      <c r="D11">
+        <v>2.1545571545571498</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1709.0909090908999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
+        <f t="shared" si="2"/>
+        <v>42408.168854568852</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="1"/>
+        <v>39.212097812097625</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="3"/>
+        <v>4.2867438867438423</v>
+      </c>
+      <c r="D12">
+        <v>2.29626769626769</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
+        <f t="shared" si="2"/>
+        <v>42412.19086229086</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="1"/>
+        <v>43.234105534105254</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="3"/>
+        <v>4.0220077220076291</v>
+      </c>
+      <c r="D13">
+        <v>2.42922662922662</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1190.9090909090901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
+        <f t="shared" si="2"/>
+        <v>42417.076447876447</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="1"/>
+        <v>48.119691119691105</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="3"/>
+        <v>4.8855855855858508</v>
+      </c>
+      <c r="D14">
+        <v>2.5907335907335902</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
+        <f t="shared" si="2"/>
+        <v>42425.536679536679</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="1"/>
+        <v>56.579922779922775</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="3"/>
+        <v>8.4602316602316705</v>
+      </c>
+      <c r="D15">
+        <v>2.8704106704106702</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1090.9090909090901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
+        <f t="shared" si="2"/>
+        <v>42430.311840411843</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="1"/>
+        <v>61.355083655083398</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="3"/>
+        <v>4.7751608751606227</v>
+      </c>
+      <c r="D16">
+        <v>3.0282672282672198</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1136.3636363636299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3">
+        <f t="shared" si="2"/>
+        <v>42438.425225225226</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="1"/>
+        <v>69.468468468468274</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="3"/>
+        <v>8.1133848133848758</v>
+      </c>
+      <c r="D17">
+        <v>3.2964782964782899</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1036.3636363636299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3">
+        <f t="shared" si="2"/>
+        <v>42447.017117117117</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="1"/>
+        <v>78.060360360360349</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="3"/>
+        <v>8.5918918918920753</v>
+      </c>
+      <c r="D18">
+        <v>3.5805077805077801</v>
+      </c>
+      <c r="E18" s="2">
+        <v>845.45454545454504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3">
+        <f t="shared" si="2"/>
+        <v>42455.122007722006</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="1"/>
+        <v>86.165250965250706</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="3"/>
+        <v>8.1048906048903575</v>
+      </c>
+      <c r="D19">
+        <v>3.84843804843804</v>
+      </c>
+      <c r="E19" s="2">
+        <v>763.63636363636294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3">
+        <f t="shared" si="2"/>
+        <v>42461.645559845558</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="1"/>
+        <v>92.688803088802956</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="3"/>
+        <v>6.5235521235522498</v>
+      </c>
+      <c r="D20">
+        <v>4.0640926640926596</v>
+      </c>
+      <c r="E20" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3">
+        <f t="shared" si="2"/>
+        <v>42468.83590733591</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="1"/>
+        <v>99.879150579150533</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="3"/>
+        <v>7.1903474903475768</v>
+      </c>
+      <c r="D21">
+        <v>4.3017901017901004</v>
+      </c>
+      <c r="E21" s="2">
+        <v>809.09090909090901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3">
+        <f t="shared" si="2"/>
+        <v>42476.000772200772</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="1"/>
+        <v>107.04401544401517</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="3"/>
+        <v>7.16486486486464</v>
+      </c>
+      <c r="D22">
+        <v>4.5386451386451299</v>
+      </c>
+      <c r="E22" s="2">
+        <v>872.72727272727298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3">
+        <f t="shared" si="2"/>
+        <v>42480.390862290864</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="1"/>
+        <v>111.43410553410543</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="3"/>
+        <v>4.3900900900902542</v>
+      </c>
+      <c r="D23">
+        <v>4.6837720837720802</v>
+      </c>
+      <c r="E23" s="2">
+        <v>809.09090909090901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3">
+        <f t="shared" si="2"/>
+        <v>42483.891891891893</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="1"/>
+        <v>114.93513513513484</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="3"/>
+        <v>3.5010296010294155</v>
+      </c>
+      <c r="D24">
+        <v>4.7995085995085898</v>
+      </c>
+      <c r="E24" s="2">
+        <v>781.81818181818096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3">
+        <f t="shared" si="2"/>
+        <v>42487.761003861007</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="1"/>
+        <v>118.80424710424687</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="3"/>
+        <v>3.8691119691120264</v>
+      </c>
+      <c r="D25">
+        <v>4.9274131274131197</v>
+      </c>
+      <c r="E25" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3">
+        <f t="shared" si="2"/>
+        <v>42492.049163449163</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="1"/>
+        <v>123.09240669240643</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="3"/>
+        <v>4.2881595881595587</v>
+      </c>
+      <c r="D26">
+        <v>5.0691704691704604</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1054.54545454545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3">
+        <f t="shared" si="2"/>
+        <v>42496.481724581725</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="1"/>
+        <v>127.52496782496766</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4325611325612329</v>
+      </c>
+      <c r="D27">
+        <v>5.2157014157014103</v>
+      </c>
+      <c r="E27" s="2">
+        <v>900</v>
+      </c>
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3">
+        <f t="shared" si="2"/>
+        <v>42500.264478764482</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="1"/>
+        <v>131.30772200772196</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="3"/>
+        <v>3.782754182754303</v>
+      </c>
+      <c r="D28">
+        <v>5.3407511407511397</v>
+      </c>
+      <c r="E28" s="2">
+        <v>736.36363636363603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="3">
+        <f t="shared" si="2"/>
+        <v>42505.98815958816</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="1"/>
+        <v>137.03140283140283</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="3"/>
+        <v>5.7236808236808656</v>
+      </c>
+      <c r="D29">
+        <v>5.5299637299637299</v>
+      </c>
+      <c r="E29" s="2">
+        <v>618.18181818181802</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36">
+        <f>121/4</f>
+        <v>30.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>42659</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.91102106969205898</v>
+      </c>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="E2" s="1">
+        <v>42644</v>
+      </c>
+      <c r="F2" s="2">
+        <f>SUM(C2:C17)</f>
+        <v>72.111111111110986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <f>A2+1</f>
+        <v>42660</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.0069692058346802</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-0.27777777777777102</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42675</v>
+      </c>
+      <c r="F3" s="2">
+        <f>SUM(C18:C32)</f>
+        <v>192.49999999999949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A32" si="0">A3+1</f>
+        <v>42661</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.96969205834684</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-0.27777777777777102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>42662</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4.0204213938411604</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <f>SUM(F2:F3)</f>
+        <v>264.61111111111046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>42663</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4.9826580226904298</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-0.27777777777777102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>42664</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5.94100486223663</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.2222222222222201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>42665</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6.9936790923824903</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.83333333333333504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>42666</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7.9977309562398702</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.2222222222222201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>42667</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9.0465153970826595</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.05555555555555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>42668</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10.049108589951301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5.2777777777777697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>42669</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11.0030794165316</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10.2777777777777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>42670</v>
+      </c>
+      <c r="B13" s="2">
+        <v>11.9575364667747</v>
+      </c>
+      <c r="C13" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>41671</v>
-      </c>
-      <c r="B2">
-        <v>4291</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>41699</v>
-      </c>
-      <c r="B3">
-        <v>7894</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>41760</v>
-      </c>
-      <c r="B4">
-        <v>31250</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>41791</v>
-      </c>
-      <c r="B5">
-        <v>40574</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>41821</v>
-      </c>
-      <c r="B6">
-        <v>40574</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>66529</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>41913</v>
-      </c>
-      <c r="B7">
-        <v>49612</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>41974</v>
-      </c>
-      <c r="B8">
-        <v>43718</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>42036</v>
-      </c>
-      <c r="B9">
-        <v>52825</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>42064</v>
-      </c>
-      <c r="B10">
-        <v>74652</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>42095</v>
-      </c>
-      <c r="B11">
-        <v>76417</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>42125</v>
-      </c>
-      <c r="B12">
-        <v>76417</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
-        <v>42156</v>
-      </c>
-      <c r="B13">
-        <v>81422</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>146720</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1">
-        <v>42186</v>
-      </c>
-      <c r="B14">
-        <v>102965</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
-        <v>42217</v>
-      </c>
-      <c r="B15">
-        <v>114277</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1">
-        <v>42248</v>
-      </c>
-      <c r="B16">
-        <v>119038</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1">
-        <v>42278</v>
-      </c>
-      <c r="B17">
-        <v>121340</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1">
-        <v>42309</v>
-      </c>
-      <c r="B18">
-        <v>129339</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1">
-        <v>42339</v>
-      </c>
-      <c r="B19">
-        <v>140101</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1">
+    <row r="14" spans="1:6">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>42671</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12.9727714748784</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>42672</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14.0614262560778</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13.0555555555555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>42673</v>
+      </c>
+      <c r="B16" s="2">
+        <v>14.9964343598055</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3.8888888888888902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
         <v>42674</v>
       </c>
-      <c r="B20">
-        <v>101022</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1">
-        <v>42401</v>
-      </c>
-      <c r="B21">
-        <v>119476</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>1933</v>
-      </c>
-      <c r="F21">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1">
-        <v>42430</v>
-      </c>
-      <c r="B22">
-        <v>116538</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <f>1474+1400</f>
-        <v>2874</v>
-      </c>
-      <c r="F22">
-        <f>1058+645</f>
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1">
-        <v>42461</v>
-      </c>
-      <c r="B23">
-        <v>108190</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1">
-        <v>42491</v>
-      </c>
-      <c r="B24">
-        <v>98653</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <f>658+1039</f>
-        <v>1697</v>
-      </c>
-      <c r="F24">
-        <f>2134+2016</f>
-        <v>4150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1">
-        <v>42522</v>
-      </c>
-      <c r="B25">
-        <v>93817</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1">
-        <v>42552</v>
-      </c>
-      <c r="B26">
-        <v>99034</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <f>775+581</f>
-        <v>1356</v>
-      </c>
-      <c r="F26">
-        <f>1249+2500</f>
-        <v>3749</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1">
-        <v>42583</v>
-      </c>
-      <c r="B27">
-        <v>94827</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <f>652+1686</f>
-        <v>2338</v>
-      </c>
-      <c r="F27">
-        <f>1413+1238</f>
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1">
-        <v>42614</v>
-      </c>
-      <c r="B28">
-        <v>101350</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <f>335+765</f>
-        <v>1100</v>
-      </c>
-      <c r="F28">
-        <f>1076+1142</f>
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1">
-        <v>42644</v>
-      </c>
-      <c r="B29">
-        <v>101570</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <f>357+2133</f>
-        <v>2490</v>
-      </c>
-      <c r="F29">
-        <f>1215+1201</f>
-        <v>2416</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1">
+      <c r="B17" s="2">
+        <v>15.9990275526742</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6.1111111111111098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
         <v>42675</v>
       </c>
-      <c r="I30">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="3" customFormat="1">
-      <c r="A33" s="2">
-        <v>41852</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="3" customFormat="1" ht="14" customHeight="1">
-      <c r="A34" s="2">
-        <v>41883</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="H41">
-        <f>AVERAGE(E21:E29)</f>
-        <v>1969.7142857142858</v>
-      </c>
-      <c r="I41">
-        <f>AVERAGE(F21:F29)</f>
-        <v>2467.2857142857142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="H42">
-        <f>AVERAGE(B21:B29)</f>
-        <v>103717.22222222222</v>
-      </c>
-      <c r="I42">
-        <f>AVERAGE(B21:B29)</f>
-        <v>103717.22222222222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="H44">
-        <f>H41/H42</f>
-        <v>1.8991197831099059E-2</v>
-      </c>
-      <c r="I44">
-        <f>I41/I42</f>
-        <v>2.3788582661800974E-2</v>
-      </c>
-      <c r="J44" t="s">
-        <v>16</v>
+      <c r="B18" s="2">
+        <v>16.996758508914098</v>
+      </c>
+      <c r="C18" s="2">
+        <v>11.1111111111111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>42676</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18.008589951377601</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8.05555555555555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>42677</v>
+      </c>
+      <c r="B20" s="2">
+        <v>18.955267423014501</v>
+      </c>
+      <c r="C20" s="2">
+        <v>17.2222222222222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>42678</v>
+      </c>
+      <c r="B21" s="2">
+        <v>19.972447325769799</v>
+      </c>
+      <c r="C21" s="2">
+        <v>11.1111111111111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>42679</v>
+      </c>
+      <c r="B22" s="2">
+        <v>20.9541329011345</v>
+      </c>
+      <c r="C22" s="2">
+        <v>25.2777777777777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>42680</v>
+      </c>
+      <c r="B23" s="2">
+        <v>22.017017828200899</v>
+      </c>
+      <c r="C23" s="2">
+        <v>18.0555555555555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>42681</v>
+      </c>
+      <c r="B24" s="2">
+        <v>22.958346839546099</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5.2777777777777697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>42682</v>
+      </c>
+      <c r="B25" s="2">
+        <v>23.9599675850891</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8.05555555555555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>42683</v>
+      </c>
+      <c r="B26" s="2">
+        <v>24.951863857374398</v>
+      </c>
+      <c r="C26" s="2">
+        <v>16.3888888888888</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>42684</v>
+      </c>
+      <c r="B27" s="2">
+        <v>25.9865478119935</v>
+      </c>
+      <c r="C27" s="2">
+        <v>25.2777777777777</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>42685</v>
+      </c>
+      <c r="B28" s="2">
+        <v>27.016369529983699</v>
+      </c>
+      <c r="C28" s="2">
+        <v>11.9444444444444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>42686</v>
+      </c>
+      <c r="B29" s="2">
+        <v>27.996110210696902</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2.2222222222222201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>42687</v>
+      </c>
+      <c r="B30" s="2">
+        <v>28.948622366288401</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8.05555555555555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>42688</v>
+      </c>
+      <c r="B31" s="2">
+        <v>30.042625607779499</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8.05555555555555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>42689</v>
+      </c>
+      <c r="B32" s="2">
+        <v>31.034521880064801</v>
+      </c>
+      <c r="C32" s="2">
+        <v>16.3888888888888</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1">
-    <sortState ref="A2:D20">
-      <sortCondition ref="A1:A20"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>

--- a/data/Bentiu population.xlsx
+++ b/data/Bentiu population.xlsx
@@ -1492,7 +1492,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/Bentiu population.xlsx
+++ b/data/Bentiu population.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22400" windowHeight="20460" tabRatio="500"/>
@@ -159,8 +159,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -177,13 +179,15 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,11 +422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361685272"/>
-        <c:axId val="361688296"/>
+        <c:axId val="2103639656"/>
+        <c:axId val="2103642680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361685272"/>
+        <c:axId val="2103639656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,12 +436,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="361688296"/>
+        <c:crossAx val="2103642680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="361688296"/>
+        <c:axId val="2103642680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -448,7 +452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="361685272"/>
+        <c:crossAx val="2103639656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -480,7 +484,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -702,11 +705,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="120468296"/>
-        <c:axId val="121877640"/>
+        <c:axId val="2103717592"/>
+        <c:axId val="2103720648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="120468296"/>
+        <c:axId val="2103717592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -716,12 +719,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121877640"/>
+        <c:crossAx val="2103720648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121877640"/>
+        <c:axId val="2103720648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -732,14 +735,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120468296"/>
+        <c:crossAx val="2103717592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -769,7 +771,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1008,11 +1009,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="423147592"/>
-        <c:axId val="423136440"/>
+        <c:axId val="2103755912"/>
+        <c:axId val="2103758952"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="423147592"/>
+        <c:axId val="2103755912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,14 +1023,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423136440"/>
+        <c:crossAx val="2103758952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="423136440"/>
+        <c:axId val="2103758952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,14 +1041,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423147592"/>
+        <c:crossAx val="2103755912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1492,7 +1492,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1578,7 +1578,7 @@
         <v>31250</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C29" si="0">(B4-B3)/((A4-A3)/30.5)</f>
+        <f t="shared" ref="C4:C28" si="0">(B4-B3)/((A4-A3)/30.5)</f>
         <v>11678</v>
       </c>
       <c r="D4" s="2"/>
@@ -1604,6 +1604,12 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
+      <c r="K5">
+        <v>66529</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
@@ -1622,12 +1628,6 @@
       </c>
       <c r="E6" t="s">
         <v>2</v>
-      </c>
-      <c r="K6">
-        <v>66529</v>
-      </c>
-      <c r="L6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:13">
